--- a/storage/template_export/RKPD.xlsx
+++ b/storage/template_export/RKPD.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAM" sheetId="1" r:id="rId1"/>
     <sheet name="KEGIATAN" sheetId="2" r:id="rId2"/>
+    <sheet name="MASTER" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,11 +25,35 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>KODEBIDANG</t>
+  </si>
+  <si>
+    <t>NAMA BIDANG</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN</t>
+  </si>
+  <si>
+    <t>KESEHATAN</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -55,8 +80,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,26 +365,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:P1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16" width="19.20703125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16" width="19.20703125" style="1" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.62890625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/storage/template_export/RKPD.xlsx
+++ b/storage/template_export/RKPD.xlsx
@@ -2,20 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\KERNEL\NUWAS_KERNEL\storage\template_export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAM" sheetId="1" r:id="rId1"/>
     <sheet name="KEGIATAN" sheetId="2" r:id="rId2"/>
     <sheet name="MASTER" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="PEKERJAAN_UMUM_DAN_PENATAAN_RUANG">MASTER!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,20 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>KODEBIDANG</t>
-  </si>
-  <si>
-    <t>NAMA BIDANG</t>
-  </si>
-  <si>
-    <t>PENDIDIKAN</t>
-  </si>
-  <si>
-    <t>KESEHATAN</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -80,10 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -365,10 +358,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -383,15 +377,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16" width="19.20703125" style="1" customWidth="1"/>
+    <col min="17" max="26" width="17.62890625" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="8.83984375" style="2"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -400,43 +397,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B4"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="15.1015625" defaultRowHeight="10.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.62890625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="1" max="16384" width="15.1015625" style="2"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/storage/template_export/RKPD.xlsx
+++ b/storage/template_export/RKPD.xlsx
@@ -82,7 +82,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -400,13 +415,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1015625" defaultRowHeight="10.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="15.1015625" defaultRowHeight="10.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="15.1015625" style="2"/>
+    <col min="1" max="16384" width="15.1015625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/storage/template_export/RKPD.xlsx
+++ b/storage/template_export/RKPD.xlsx
@@ -14,7 +14,8 @@
   <sheets>
     <sheet name="PROGRAM" sheetId="1" r:id="rId1"/>
     <sheet name="KEGIATAN" sheetId="2" r:id="rId2"/>
-    <sheet name="MASTER" sheetId="3" r:id="rId3"/>
+    <sheet name="KEGIATAN SUMBERDANA" sheetId="4" r:id="rId3"/>
+    <sheet name="MASTER" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="PEKERJAAN_UMUM_DAN_PENATAAN_RUANG">MASTER!#REF!</definedName>
@@ -29,12 +30,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
+  <si>
+    <t>NAMA PEMDA</t>
+  </si>
+  <si>
+    <t>KODE PEMDA</t>
+  </si>
+  <si>
+    <t>TAHUN RKPD</t>
+  </si>
+  <si>
+    <t>TANGGAL PENGAMBILAN DATA</t>
+  </si>
+  <si>
+    <t>TANGGAL UPDATE DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* DILARANG MENAMBAH / MERUBAH DATA PADA WORKSHEET MASTER </t>
+  </si>
+  <si>
+    <t>* DILARANG MELAKUKAN PERUBAHAN DATA APAPUN DILUAR KOLOM YANG DISEDIAKAN</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,16 +72,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -66,38 +117,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -374,17 +446,54 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="16" width="19.20703125" style="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -393,10 +502,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.4"/>
@@ -405,23 +514,146 @@
     <col min="17" max="26" width="17.62890625" style="2" customWidth="1"/>
     <col min="27" max="16384" width="8.83984375" style="2"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="2:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.734375" defaultRowHeight="10.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="17.734375" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="2:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A22:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1015625" defaultRowHeight="10.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="16384" width="15.1015625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="22" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A22:G22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
